--- a/bom 清单.xlsx
+++ b/bom 清单.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21820" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>电源分配器</t>
   </si>
@@ -276,19 +275,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>11.29 买2PCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.29 买4PCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.29 买1PCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>11.29 已买 35,红色先寄</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>11.29 买2PCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.29 买4PCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.29 买1PCS</t>
+    <t>18681091398/15019113756</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>422 转换器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇泰UT-503 RS232转RS485带防雷光隔 RS422转换器 232转485转换器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -690,30 +701,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="41.08203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125"/>
-    <col min="12" max="12" width="12.83203125"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="51.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875"/>
+    <col min="12" max="12" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -739,7 +750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -753,11 +764,11 @@
         <v>11600</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E15" si="0">C3*D3</f>
         <v>11600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -775,7 +786,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -799,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -820,7 +831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -844,13 +855,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -875,7 +886,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -900,7 +911,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -924,10 +935,10 @@
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
@@ -945,10 +956,10 @@
         <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="171" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -972,10 +983,13 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1026,60 +1040,65 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>220</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15:E20" si="1">C15*D15</f>
+      <c r="E16">
+        <f t="shared" ref="E16:E21" si="1">C16*D16</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>80</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3000</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1092,89 +1111,86 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="E21">
-        <f>SUM(E3:E20)</f>
-        <v>31593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="E22">
+        <f>SUM(E3:E21)</f>
+        <v>32173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>11600</v>
-      </c>
-      <c r="E24">
-        <f>C24*D24</f>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
@@ -1183,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>6800</v>
+        <v>11600</v>
       </c>
       <c r="E25">
         <f>C25*D25</f>
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>9</v>
@@ -1201,271 +1217,289 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>350</v>
+        <v>6800</v>
       </c>
       <c r="E26">
         <f>C26*D26</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>350</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27">
+        <f>C27*D27</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>17</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>19</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>540</v>
-      </c>
-      <c r="E28">
-        <f>C28*D28</f>
-        <v>1080</v>
+      <c r="C28" s="2">
+        <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="E29">
         <f>C29*D29</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30">
-        <v>9</v>
+      <c r="C30" s="2">
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <f>C30*D30</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <f>C31*D31</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <f>C32*D32</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>1300</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="E33">
+        <f>C33*D33</f>
+        <v>1300</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>220</v>
       </c>
-      <c r="E33">
-        <f t="shared" ref="E33:E37" si="2">C33*D33</f>
+      <c r="E34">
+        <f t="shared" ref="E34:E38" si="2">C34*D34</f>
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>680</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>80</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>7000</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>800</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>1000</v>
       </c>
-      <c r="E38">
-        <f t="shared" ref="E38" si="3">C38*D38</f>
+      <c r="E39">
+        <f t="shared" ref="E39" si="3">C39*D39</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="E40">
-        <f>SUM(E24:E38)</f>
+      <c r="E41">
+        <f>SUM(E25:E39)</f>
         <v>33320</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6" ht="14.1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>6000</v>
       </c>
-      <c r="E41">
-        <f t="shared" ref="E41" si="4">C41*D41</f>
+      <c r="E42">
+        <f t="shared" ref="E42" si="4">C42*D42</f>
         <v>18000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E44">
-        <f>E21+E40+E41</f>
-        <v>82913</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f>E22+E41+E42</f>
+        <v>83493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1"/>
+    <hyperlink ref="F29" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
     <hyperlink ref="F6" r:id="rId3"/>
     <hyperlink ref="F7" r:id="rId4"/>
